--- a/medicine/Psychotrope/Smithwick's/Smithwick's.xlsx
+++ b/medicine/Psychotrope/Smithwick's/Smithwick's.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Smithwick%27s</t>
+          <t>Smithwick's</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smithwick's est une ale rousse irlandaise, aujourd’hui brassée à Dublin par le groupe Diageo. Cette bière était, avant 2013, brassée à Kilkenny en Irlande à la brasserie St. Francis Abbey, fondée en 1710 par John Smithwick sur les ruines d'une abbaye du XIIIe siècle.
 La brasserie est détenue aujourd’hui par Guinness et fait ainsi partie du groupe Diageo.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smithwick%27s</t>
+          <t>Smithwick's</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Smithwick's Draught
 Kilkenny Cream Ale
-Smithwick’s ale (récompensée de sept labels de qualité Or aux Sélections Mondiales de la Qualité, organisées par Monde Selection)[1].</t>
+Smithwick’s ale (récompensée de sept labels de qualité Or aux Sélections Mondiales de la Qualité, organisées par Monde Selection).</t>
         </is>
       </c>
     </row>
